--- a/cosmetic_data_files/화장품 제외 리스트.xlsx
+++ b/cosmetic_data_files/화장품 제외 리스트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jda05\Desktop\4학년 1학기\3.캡스톤디자인2\화장품 데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jda05\Desktop\Rutina\backend\cosmetic_data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91CB0B6-8064-462F-82FD-A6D25DFE5BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE163E2B-F1F5-4A48-9938-C990CA31F14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12777" windowHeight="13431" xr2:uid="{91EA93D9-2C73-48BB-880F-866E134F3448}"/>
+    <workbookView xWindow="12463" yWindow="0" windowWidth="12776" windowHeight="13536" xr2:uid="{91EA93D9-2C73-48BB-880F-866E134F3448}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="190">
   <si>
     <t>기능성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -777,6 +777,14 @@
   </si>
   <si>
     <t>팩트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈모</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E4653A-C8EE-486F-90AC-53807E33D8C0}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
@@ -1344,6 +1352,9 @@
       <c r="L4" t="s">
         <v>37</v>
       </c>
+      <c r="M4" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -1756,6 +1767,9 @@
       <c r="E24" t="s">
         <v>111</v>
       </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
@@ -1763,6 +1777,9 @@
       </c>
       <c r="E25" t="s">
         <v>106</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.35">

--- a/cosmetic_data_files/화장품 제외 리스트.xlsx
+++ b/cosmetic_data_files/화장품 제외 리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jda05\Desktop\Rutina\backend\cosmetic_data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE163E2B-F1F5-4A48-9938-C990CA31F14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E7D6E5-B35F-491F-AEA9-BC93359DF53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12463" yWindow="0" windowWidth="12776" windowHeight="13536" xr2:uid="{91EA93D9-2C73-48BB-880F-866E134F3448}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{91EA93D9-2C73-48BB-880F-866E134F3448}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="205">
   <si>
     <t>기능성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -785,6 +785,64 @@
   </si>
   <si>
     <t>탈모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톤업마스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톤업크림</t>
+  </si>
+  <si>
+    <t>코렉터</t>
+  </si>
+  <si>
+    <t>갈색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톤업선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톤업썬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톤업베이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1179,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E4653A-C8EE-486F-90AC-53807E33D8C0}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
@@ -1517,6 +1575,9 @@
       <c r="E10" t="s">
         <v>32</v>
       </c>
+      <c r="G10" t="s">
+        <v>198</v>
+      </c>
       <c r="H10" t="s">
         <v>135</v>
       </c>
@@ -1540,6 +1601,9 @@
       <c r="E11" t="s">
         <v>33</v>
       </c>
+      <c r="G11" t="s">
+        <v>199</v>
+      </c>
       <c r="H11" t="s">
         <v>51</v>
       </c>
@@ -1563,6 +1627,9 @@
       <c r="E12" t="s">
         <v>34</v>
       </c>
+      <c r="G12" t="s">
+        <v>200</v>
+      </c>
       <c r="H12" t="s">
         <v>131</v>
       </c>
@@ -1586,6 +1653,9 @@
       <c r="E13" t="s">
         <v>35</v>
       </c>
+      <c r="G13" t="s">
+        <v>201</v>
+      </c>
       <c r="H13" t="s">
         <v>132</v>
       </c>
@@ -1697,6 +1767,9 @@
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
       <c r="D19" t="s">
         <v>122</v>
       </c>
@@ -1789,6 +1862,9 @@
       <c r="E26" t="s">
         <v>107</v>
       </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
@@ -1797,6 +1873,9 @@
       <c r="E27" t="s">
         <v>108</v>
       </c>
+      <c r="I27" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
@@ -1838,19 +1917,55 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>195</v>
+      </c>
       <c r="E33" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
+        <v>196</v>
+      </c>
       <c r="E34" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E37" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E41" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
